--- a/biology/Histoire de la zoologie et de la botanique/Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature/Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature/Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tableau_encyclop%C3%A9dique_et_m%C3%A9thodique_des_trois_r%C3%A8gnes_de_la_nature</t>
+          <t>Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tableau encyclopédique et méthodique des trois règnes de la nature est une encyclopédie illustrée de plantes, d'animaux et de minéraux, qui se distingue par l'incorporation des premières descriptions scientifiques de diverses espèces, et par ses gravures colorées attirantes. Elle a été publiée à Paris par Charles-Joseph Panckoucke, à partir de 1788. Bien que de nombreux volumes peuvent être considérés comme des éléments de la plus grande Encyclopédie méthodique, ils ont été intitulés et édités séparément.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tableau_encyclop%C3%A9dique_et_m%C3%A9thodique_des_trois_r%C3%A8gnes_de_la_nature</t>
+          <t>Tableau_encyclopédique_et_méthodique_des_trois_règnes_de_la_nature</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Contributeurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste de Lamarck (1744-1829) traite de la taxinomie végétale ;
 Louis Jean-Marie Daubenton (1716-1800) rédige la partie consacrée aux quadrupèdes mais son système, notamment la classification qu'il y suit, est critiqué par ses contemporains ;
